--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1540386.438957873</v>
+        <v>-1542969.237716503</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12545852.19674081</v>
+        <v>12557642.87455484</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14713345.84806866</v>
+        <v>14717968.19709434</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6405433727635</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812899</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>10.95750833076977</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.089742000015</v>
+        <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173975</v>
+        <v>9.512185486736399</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.820285945357</v>
+        <v>128.5862749777978</v>
       </c>
       <c r="T3" t="n">
-        <v>191.0804331905373</v>
+        <v>190.8126513536573</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7931073991856</v>
+        <v>225.7887366401506</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899012</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978308</v>
+        <v>89.83072347163694</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>92.73297870542791</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>104.4797986527084</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>247.9428017852343</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>39.83117660926985</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>72.07192456522814</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.624422106462784</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>260.0947453200441</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.12741312164714</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>56.5837521657736</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881296</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671011569</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>235.5696871035128</v>
+        <v>186.9166231085289</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>131.632984292005</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>151.51335920216</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673029</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>165.8053198049109</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2369,7 +2369,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>41.7413313375875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797029</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673029</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261729</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>711.4043130836594</v>
+        <v>2302.589958911118</v>
       </c>
       <c r="C2" t="n">
-        <v>711.4043130836594</v>
+        <v>1933.627441970706</v>
       </c>
       <c r="D2" t="n">
-        <v>711.4043130836594</v>
+        <v>1575.361743363956</v>
       </c>
       <c r="E2" t="n">
-        <v>711.4043130836594</v>
+        <v>1189.573490765711</v>
       </c>
       <c r="F2" t="n">
-        <v>300.418408294052</v>
+        <v>778.5875859761038</v>
       </c>
       <c r="G2" t="n">
-        <v>300.418408294052</v>
+        <v>363.470134036005</v>
       </c>
       <c r="H2" t="n">
-        <v>62.3976574124727</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="I2" t="n">
-        <v>62.3976574124727</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730306</v>
+        <v>250.5613272725623</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315685</v>
+        <v>578.7702206183942</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529726</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808268</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811713</v>
+        <v>2087.540198746179</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2583.081262767914</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259756</v>
+        <v>2971.513095303804</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510235</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623635</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672837</v>
+        <v>3159.966809007346</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614954</v>
+        <v>2953.792066077312</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998358</v>
+        <v>2700.25798920834</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.377898654787</v>
+        <v>2689.18979897524</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.609243384673</v>
+        <v>2689.18979897524</v>
       </c>
       <c r="X2" t="n">
-        <v>1488.143485123593</v>
+        <v>2689.18979897524</v>
       </c>
       <c r="Y2" t="n">
-        <v>1098.004153147781</v>
+        <v>2689.18979897524</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451369</v>
+        <v>1647.371745645388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640099</v>
+        <v>1472.918716364261</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027586</v>
+        <v>1323.98430670301</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973032</v>
+        <v>1164.746851697554</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>1018.212293724439</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>881.8251154793055</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170478</v>
+        <v>791.0906775767803</v>
       </c>
       <c r="I3" t="n">
-        <v>62.3976574124727</v>
+        <v>781.4824094083597</v>
       </c>
       <c r="J3" t="n">
-        <v>272.4615367472575</v>
+        <v>872.9300981008078</v>
       </c>
       <c r="K3" t="n">
-        <v>496.2944234851906</v>
+        <v>1107.383588374679</v>
       </c>
       <c r="L3" t="n">
-        <v>843.5879035533844</v>
+        <v>1468.957780560824</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.21988219004</v>
+        <v>1910.254676661454</v>
       </c>
       <c r="N3" t="n">
-        <v>1718.499250685068</v>
+        <v>2377.640033397719</v>
       </c>
       <c r="O3" t="n">
-        <v>2108.197108444263</v>
+        <v>2782.986528471579</v>
       </c>
       <c r="P3" t="n">
-        <v>2401.630929422764</v>
+        <v>3088.979760503335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2547.86447143791</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>3141.397829417916</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2948.657777545534</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2720.588346595887</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2485.436238364145</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2231.198881635943</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>2023.34738143041</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1815.587082665456</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.775005704699</v>
+        <v>825.6781834432865</v>
       </c>
       <c r="C4" t="n">
-        <v>753.8388227767921</v>
+        <v>656.7420005153796</v>
       </c>
       <c r="D4" t="n">
-        <v>603.7221833644563</v>
+        <v>506.6253611030438</v>
       </c>
       <c r="E4" t="n">
-        <v>455.8090897820633</v>
+        <v>358.7122675206507</v>
       </c>
       <c r="F4" t="n">
-        <v>308.9191422841529</v>
+        <v>211.8223200227403</v>
       </c>
       <c r="G4" t="n">
-        <v>308.9191422841529</v>
+        <v>211.8223200227403</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225637</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="I4" t="n">
-        <v>62.3976574124727</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038604</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589863</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712698</v>
+        <v>624.4564789039122</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583192</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468307</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.56591507702</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>1906.594412149533</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809515</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="S4" t="n">
-        <v>1755.634517809515</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.541268728386</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.434232062745</v>
+        <v>1112.861798427777</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.764556602716</v>
+        <v>1112.861798427777</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.764556602716</v>
+        <v>1007.326648273526</v>
       </c>
       <c r="X4" t="n">
-        <v>922.775005704699</v>
+        <v>1007.326648273526</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.775005704699</v>
+        <v>1007.326648273526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1811.579746109089</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1811.579746109089</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1453.314047502339</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1067.525794904095</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>656.5398901144872</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810562</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149023</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.179586173211</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1662.808740112058</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1662.808740112058</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.124251906171</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>1408.124251906171</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.134701008154</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.506131441393</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C8" t="n">
-        <v>828.5436145009811</v>
+        <v>1583.077587705312</v>
       </c>
       <c r="D8" t="n">
-        <v>470.2779158942306</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598635</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3285.073081082255</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3285.073081082255</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3031.542604356091</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2700.479717012521</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2347.711061742406</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1974.245303481326</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.105971505515</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190824</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5200,16 +5200,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.91737983267</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>920.9817565737823</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>770.8651171614465</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>622.9520235790534</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>476.0620760811431</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>308.8659767960229</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1492.358983475459</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1271.566404331929</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.8166630479719</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400714</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121646</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121646</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121646</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121646</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703112</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="23">
@@ -5978,43 +5978,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876692</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179089</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,25 +6242,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188002</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290587</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925701</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490399</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,16 +6716,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,13 +6889,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,16 +6935,16 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,10 +7111,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,43 +7154,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7418,43 +7418,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,7 +7582,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7813,19 +7813,19 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>27.95355500662095</v>
       </c>
       <c r="R3" t="n">
-        <v>14.71824250930218</v>
+        <v>1.622913276780309</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60.6951185094107</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406818</v>
+        <v>43.29451177962366</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>316.7947501393651</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104684</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638284</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.4046646184001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>182.0431996838826</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.632292718420595e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>50.61478728573137</v>
+        <v>99.26785128071528</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.661728554218826</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>134.6711151870842</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864915</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1056722.556073908</v>
+        <v>1076720.940648151</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1302899.890976444</v>
+        <v>1281014.997951957</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,28 +26326,28 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023883</v>
+        <v>14479.05232074615</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594303</v>
+        <v>3495.241841022872</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.91945249303</v>
+        <v>11046.00124731559</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678119</v>
       </c>
-      <c r="H4" t="n">
-        <v>10557.08828678118</v>
-      </c>
       <c r="I4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678116</v>
       </c>
-      <c r="K4" t="n">
-        <v>18547.94754987466</v>
-      </c>
       <c r="L4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987461</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="N4" t="n">
         <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
+        <v>18547.94754987466</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987467</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.028612043</v>
+        <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1271827.401695349</v>
+        <v>-1313310.758621326</v>
       </c>
       <c r="C6" t="n">
-        <v>-108828.526773515</v>
+        <v>-68474.80621402233</v>
       </c>
       <c r="D6" t="n">
-        <v>-53995.75389327612</v>
+        <v>-53995.75389327617</v>
       </c>
       <c r="E6" t="n">
-        <v>-295841.4249722924</v>
+        <v>-295876.1628977283</v>
       </c>
       <c r="F6" t="n">
-        <v>29571.03683506278</v>
+        <v>29536.29890962712</v>
       </c>
       <c r="G6" t="n">
-        <v>29571.03683506284</v>
+        <v>29536.29890962709</v>
       </c>
       <c r="H6" t="n">
-        <v>29571.0368350628</v>
+        <v>29536.2989096271</v>
       </c>
       <c r="I6" t="n">
-        <v>29571.0368350629</v>
+        <v>29536.29890962709</v>
       </c>
       <c r="J6" t="n">
-        <v>-174503.6216152998</v>
+        <v>-184441.590502926</v>
       </c>
       <c r="K6" t="n">
-        <v>-10694.09778348345</v>
+        <v>26041.05706860422</v>
       </c>
       <c r="L6" t="n">
-        <v>21970.24632245957</v>
+        <v>2542.528328827859</v>
       </c>
       <c r="M6" t="n">
-        <v>-63084.78161305227</v>
+        <v>-63084.78161305228</v>
       </c>
       <c r="N6" t="n">
-        <v>21970.24632245957</v>
+        <v>21970.24632245954</v>
       </c>
       <c r="O6" t="n">
         <v>21970.24632245957</v>
       </c>
       <c r="P6" t="n">
-        <v>2542.528328827771</v>
+        <v>21970.24632245957</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310265</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559087</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310265</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>41.968949283033</v>
+        <v>11.08225210209594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559087</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638412</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.970717655909</v>
+        <v>817.8207389145291</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638367</v>
+        <v>13.58071648776411</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559087</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638412</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>162.9789238682191</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>346.4067620467837</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>147.4770247109411</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>284.8985762301282</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>94.58829630063889</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.06034866652865</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062515</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9392461708174</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.111192148006168e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578953</v>
+        <v>4.336460094436991</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359296</v>
+        <v>44.41077194215285</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563377</v>
+        <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>368.0516299402219</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727967</v>
+        <v>551.6139857377399</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774662</v>
+        <v>684.3259263528661</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477734</v>
+        <v>761.4444485573099</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212822</v>
+        <v>773.7654158006291</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967938</v>
+        <v>730.6447407365712</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034383</v>
+        <v>623.5883821551579</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.880198208267</v>
+        <v>468.2889050231329</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>272.4001614071779</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495548</v>
+        <v>98.81708440198304</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3469168075549592</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195665</v>
+        <v>2.320210700528247</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665287</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967533</v>
+        <v>79.88444736467868</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>219.2090293863113</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621702</v>
+        <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982518</v>
+        <v>503.7808365335564</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640945</v>
+        <v>587.8884744277052</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278059</v>
+        <v>603.4481330290548</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012072</v>
+        <v>552.0371485594552</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825126</v>
+        <v>443.058480173679</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>43.09689612603999</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284277</v>
+        <v>9.352077341164289</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891885</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.945186710393971</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826817</v>
+        <v>58.49706943621145</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>280.915540408657</v>
+        <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>304.9168586120295</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328804</v>
+        <v>297.6666172369249</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>274.9432997564134</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431436</v>
+        <v>235.2614908643762</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>84.9583137373864</v>
+        <v>87.46266790553254</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964335</v>
+        <v>8.311252308046965</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059278</v>
+        <v>0.1061010932942167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175677</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34138,7 +34138,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934932</v>
+        <v>187.0057254135356</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278161</v>
+        <v>331.5241346927593</v>
       </c>
       <c r="L2" t="n">
-        <v>428.964928607479</v>
+        <v>448.5595113828788</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205007</v>
+        <v>531.0982153300372</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246912</v>
+        <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751071</v>
+        <v>500.5465293148844</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481688</v>
+        <v>392.3553863998883</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338175</v>
+        <v>245.9832151486835</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242453</v>
+        <v>56.81462359304578</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>212.1857367018028</v>
+        <v>92.37140271964458</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878112</v>
+        <v>236.8217073473448</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183776</v>
+        <v>365.2264567536822</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420762</v>
+        <v>445.7544405056869</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444726</v>
+        <v>472.1064209457215</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567628</v>
+        <v>409.4409041150108</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>184.1446415704858</v>
       </c>
       <c r="R3" t="n">
-        <v>8.970498239188435</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726054</v>
+        <v>44.16552030818099</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617431</v>
+        <v>203.7258368907985</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>316.7862385492526</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>341.7987896161535</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080371</v>
+        <v>232.5400501292697</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615568</v>
+        <v>76.72081847047717</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572999023</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37315,7 +37315,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38032,13 +38032,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
